--- a/Java_008/1~100 변수 합.xlsx
+++ b/Java_008/1~100 변수 합.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>정수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>7~106 3의 배수 합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7~106 3의 배수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,20 +392,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,11 +426,14 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -453,8 +460,15 @@
         <f>SUM(F2:F51)</f>
         <v>2500</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2" s="1">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1">
+        <f>SUM(J2:J34)</f>
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -475,8 +489,12 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J3" s="1">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,8 +515,12 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J4" s="1">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -519,13 +541,17 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="1">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" ref="B3:B12" si="0">A6/2</f>
+        <f t="shared" ref="B6:B10" si="0">A6/2</f>
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -542,8 +568,12 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" s="1">
+        <v>21</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -564,8 +594,12 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="1">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -586,8 +620,12 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" s="1">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -608,8 +646,12 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="1">
+        <v>30</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -631,8 +673,12 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="1">
+        <v>33</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -653,8 +699,12 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="1">
+        <v>36</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -675,8 +725,12 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J12" s="1">
+        <v>39</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -697,8 +751,12 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13" s="1">
+        <v>42</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -710,8 +768,12 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14" s="1">
+        <v>45</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -723,8 +785,12 @@
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15" s="1">
+        <v>48</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -736,8 +802,12 @@
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J16" s="1">
+        <v>51</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -749,8 +819,12 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J17" s="1">
+        <v>54</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -762,8 +836,12 @@
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J18" s="1">
+        <v>57</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -775,8 +853,12 @@
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J19" s="1">
+        <v>60</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -788,8 +870,12 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J20" s="1">
+        <v>63</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -801,8 +887,12 @@
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J21" s="1">
+        <v>66</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -814,8 +904,12 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J22" s="1">
+        <v>69</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -827,8 +921,12 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J23" s="1">
+        <v>72</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -840,8 +938,12 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J24" s="1">
+        <v>75</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -853,8 +955,12 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J25" s="1">
+        <v>78</v>
+      </c>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -866,8 +972,12 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J26" s="1">
+        <v>81</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -879,8 +989,12 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J27" s="1">
+        <v>84</v>
+      </c>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -892,8 +1006,12 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J28" s="1">
+        <v>87</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -905,8 +1023,12 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J29" s="1">
+        <v>90</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -918,8 +1040,12 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J30" s="1">
+        <v>93</v>
+      </c>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -931,8 +1057,12 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J31" s="1">
+        <v>96</v>
+      </c>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -944,8 +1074,12 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J32" s="1">
+        <v>99</v>
+      </c>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -957,8 +1091,12 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J33" s="1">
+        <v>102</v>
+      </c>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -970,8 +1108,12 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J34" s="1">
+        <v>105</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -984,7 +1126,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -997,7 +1139,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1010,7 +1152,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1023,7 +1165,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1036,7 +1178,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1049,7 +1191,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1062,7 +1204,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1075,7 +1217,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1088,7 +1230,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1101,7 +1243,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1114,7 +1256,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1127,7 +1269,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1140,7 +1282,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
